--- a/REGULAR/MAHOGANY MARKET/CRUZADA, MAGDALENA.xlsx
+++ b/REGULAR/MAHOGANY MARKET/CRUZADA, MAGDALENA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="334">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1030,6 +1030,12 @@
   </si>
   <si>
     <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/25-27/2023</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1928,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1971,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2035,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2095,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2161,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2224,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2322,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2381,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2446,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2489,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2564,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2750,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2816,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2874,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2940,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +2996,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3071,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3114,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,7 +3180,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3230,7 +3236,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3334,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3463,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K510" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K513" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3835,12 +3841,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K510"/>
+  <dimension ref="A2:K513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A475" activePane="bottomLeft"/>
-      <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="E484" sqref="E484"/>
+      <pane ySplit="4050" topLeftCell="A502" activePane="bottomLeft"/>
+      <selection activeCell="D513" sqref="D513"/>
+      <selection pane="bottomLeft" activeCell="E512" sqref="E512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,7 +4009,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>139.58099999999993</v>
+        <v>139.08099999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4013,7 +4019,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>279.04000000000002</v>
+        <v>281.54000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15180,15 +15186,17 @@
       <c r="B510" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C510" s="41"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="42">
         <v>2</v>
       </c>
       <c r="E510" s="54"/>
       <c r="F510" s="15"/>
-      <c r="G510" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="42"/>
       <c r="I510" s="54"/>
@@ -15196,6 +15204,68 @@
       <c r="K510" s="15" t="s">
         <v>326</v>
       </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D511" s="38"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H511" s="38"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C512" s="13"/>
+      <c r="D512" s="38">
+        <v>3</v>
+      </c>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="38"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="38"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="38"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAHOGANY MARKET/CRUZADA, MAGDALENA.xlsx
+++ b/REGULAR/MAHOGANY MARKET/CRUZADA, MAGDALENA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="334">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1928,7 +1928,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2095,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2161,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2224,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2322,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2381,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2446,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2489,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2564,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2750,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2816,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2874,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2940,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +2996,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3071,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3114,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3180,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3236,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3334,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K513" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K515" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3841,12 +3841,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K513"/>
+  <dimension ref="A2:K515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A502" activePane="bottomLeft"/>
       <selection activeCell="D513" sqref="D513"/>
-      <selection pane="bottomLeft" activeCell="E512" sqref="E512"/>
+      <selection pane="bottomLeft" activeCell="D515" sqref="D515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,7 +4009,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>139.08099999999993</v>
+        <v>144.08099999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4019,7 +4019,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>281.54000000000002</v>
+        <v>285.54000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15232,15 +15232,17 @@
       <c r="B512" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C512" s="13"/>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="38">
         <v>3</v>
       </c>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H512" s="38"/>
       <c r="I512" s="9"/>
@@ -15254,18 +15256,66 @@
         <v>45200</v>
       </c>
       <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D513" s="38"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H513" s="38"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D514" s="38"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H514" s="38"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B515" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D515" s="38"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H515" s="38">
+        <v>1</v>
+      </c>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="57">
+        <v>45282</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
